--- a/src/test/resources/test_data/Book2.xlsx
+++ b/src/test/resources/test_data/Book2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="7035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -111,7 +112,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -134,7 +135,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -422,7 +422,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="A2:B5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,10 +483,10 @@
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
     </row>
